--- a/classfiers/bottleneck/welm/nearmiss/bloated_welm_tanh_nearmiss_results.xlsx
+++ b/classfiers/bottleneck/welm/nearmiss/bloated_welm_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7647058823529412</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7928994082840237</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7202380952380951</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.48</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.5217391304347827</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.8166666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.44</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3571428571428572</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5769230769230769</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5378461538461539</v>
+        <v>0.566304347826087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6380952380952382</v>
+        <v>0.1731818181818182</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4959236326109392</v>
+        <v>0.246772068511199</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6092209072978303</v>
+        <v>0.6503088578088578</v>
       </c>
     </row>
   </sheetData>
